--- a/Bridge 　Craft 仕様書.xlsx
+++ b/Bridge 　Craft 仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書について " sheetId="13" r:id="rId1"/>
@@ -38,13 +38,6 @@
     <t>岩本</t>
     <rPh sb="0" eb="2">
       <t>イワモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新改</t>
-    <rPh sb="0" eb="2">
-      <t>シンカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -238,12 +231,19 @@
     <t>シーンフロー</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲームメイン画面イメージ</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +294,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -403,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,12 +475,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF04FC57"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1819,129 +1835,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="247650" y="990599"/>
-          <a:ext cx="2057400" cy="419101"/>
-          <a:chOff x="247650" y="990599"/>
-          <a:chExt cx="2057400" cy="419101"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="角丸四角形 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="247650" y="1028700"/>
-            <a:ext cx="2057400" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="C8C850"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="561975" y="990599"/>
-            <a:ext cx="1504950" cy="409575"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>戻る</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:srgbClr val="3366FF"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2276,7 +2169,18 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
             <a:t>・ボタンは角の丸い長方形</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>🔙ボタンのみ正方形</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -2303,7 +2207,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>・戻るボタンは画面右上に配置</a:t>
+            <a:t>・🔙ボタンは画面左上に配置</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
         </a:p>
@@ -2334,16 +2238,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2352,7 +2256,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2752725" y="1590674"/>
+          <a:off x="257175" y="1019174"/>
           <a:ext cx="2057400" cy="419101"/>
           <a:chOff x="247650" y="990599"/>
           <a:chExt cx="2057400" cy="419101"/>
@@ -2812,7 +2716,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>・画面左上に配置</a:t>
+            <a:t>・画面右上に配置</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
         </a:p>
@@ -3119,10 +3023,175 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="923925"/>
+          <a:ext cx="1181100" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="04FC57"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295901" y="990601"/>
+          <a:ext cx="1447800" cy="1076324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400"/>
+            <a:t>🔙</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>275848</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9525"/>
+          <a:ext cx="10529230" cy="5873563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3562,7 +3631,7 @@
   <sheetData>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3636,7 +3705,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3653,7 +3722,7 @@
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3670,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" activeCellId="1" sqref="K14 J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3686,7 +3755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -3694,12 +3763,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3775,20 +3844,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="26" spans="1:1" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3796,22 +3869,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="7"/>
       <c r="C2" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3838,7 +3911,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="7"/>
       <c r="C8" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -3871,7 +3944,7 @@
       <c r="A15" s="14"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="16"/>
     </row>
@@ -3904,7 +3977,7 @@
       <c r="A22" s="14"/>
       <c r="B22" s="7"/>
       <c r="C22" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="16"/>
     </row>

--- a/Bridge 　Craft 仕様書.xlsx
+++ b/Bridge 　Craft 仕様書.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Documents\git\unity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Documents\GitHub\unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書について " sheetId="13" r:id="rId1"/>
     <sheet name="シーンフロー" sheetId="14" r:id="rId2"/>
-    <sheet name="統一仕様" sheetId="15" r:id="rId3"/>
-    <sheet name="操作方法" sheetId="4" r:id="rId4"/>
+    <sheet name="操作方法" sheetId="4" r:id="rId3"/>
+    <sheet name="統一仕様" sheetId="15" r:id="rId4"/>
     <sheet name="タイトル" sheetId="5" r:id="rId5"/>
     <sheet name="ステージセレクト" sheetId="6" r:id="rId6"/>
     <sheet name="ゲームメイン" sheetId="7" r:id="rId7"/>
@@ -113,80 +113,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">青ブロック
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージのいたるところにちらべられている足場
-同じ平面上の青ブロックとしか繋げられない</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>アシバ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ヘイメンジョウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ツナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">黄ブロック
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ステージのいたるところにちらべられている足場
-異なる平面上の黄ブロックと繋げられるブロック</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>アシバ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ヘイメンジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ツナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">赤ブロック
 </t>
     </r>
@@ -235,6 +161,86 @@
     <t>ゲームメイン画面イメージ</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">青ブロック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージのいたるところに散らばっている足場
+同じ平面上の青ブロックとしか繋げられない</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ヘイメンジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">黄ブロック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ステージのいたるところに散らばっている足場
+異なる平面上の黄ブロックと繋げられるブロック</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ヘイメンジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,6 +424,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,9 +483,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3623,46 +3629,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:J10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3697,32 +3703,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
+      <c r="A1" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3737,26 +3743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" activeCellId="1" sqref="K14 J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3767,30 +3757,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3799,6 +3789,22 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" activeCellId="1" sqref="K14 J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3846,15 +3852,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="26" spans="1:1" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
-        <v>10</v>
+      <c r="A26" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3869,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3881,129 +3887,129 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="15" t="s">
-        <v>4</v>
+      <c r="A8" s="15"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="16" t="s">
+        <v>9</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="15" t="s">
-        <v>5</v>
+      <c r="A15" s="15"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16" t="s">
+        <v>10</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="15" t="s">
-        <v>6</v>
+      <c r="A22" s="15"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="16" t="s">
+        <v>4</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
